--- a/output/Compare_Contrast Data/Variable Comparisons.xlsx
+++ b/output/Compare_Contrast Data/Variable Comparisons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catalinaburch/Documents/SMEA/RA Sunny/GitHub/ra_salmon_culverts/output/Compare_Contrast Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catalinaburch/Documents/SMEA/RA Sunny/GitHub/culvert_PI_framework/output/Compare_Contrast Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF973E-8D01-454F-B96A-979754E02EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF34A8-81A0-E444-AA53-1D804AFBC584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{243717BF-29B2-F146-8794-681B91B2B523}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="15540" xr2:uid="{243717BF-29B2-F146-8794-681B91B2B523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,18 +181,12 @@
     <t>Thurston (4/10)</t>
   </si>
   <si>
-    <t>Bellingham (6/13)</t>
-  </si>
-  <si>
     <t>Chehalis (11/11)</t>
   </si>
   <si>
     <t>CWCC (8/12)</t>
   </si>
   <si>
-    <t>King (4/7)</t>
-  </si>
-  <si>
     <t>H Potential (5/8)</t>
   </si>
   <si>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>WDFW (6/6)</t>
+  </si>
+  <si>
+    <t>Bellingham (7/13)</t>
+  </si>
+  <si>
+    <t>King (5/7)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,20 +656,20 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
       <c r="K2" s="1">
         <f>I2/J2*100</f>
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -705,7 +705,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>8</v>
@@ -718,7 +718,7 @@
         <v>66.666666666666657</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -754,7 +754,7 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -767,7 +767,7 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -816,7 +816,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -852,20 +852,20 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>13</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>46.153846153846153</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8">
         <v>0</v>
